--- a/frontend/Excel.Test/score_4.xlsx
+++ b/frontend/Excel.Test/score_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\frontend\Excel.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E066C-7AD1-4734-BF2E-9797DEB6D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF82BB-2977-47D5-8CC7-746025A0A12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F2802D8D-390D-4525-909C-B8B5158C3A94}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
